--- a/server/Downloads/updated-accounts.xlsx
+++ b/server/Downloads/updated-accounts.xlsx
@@ -427,7 +427,7 @@
         <x:v>1111</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>999910000</x:v>
+        <x:v>999967000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
@@ -435,7 +435,7 @@
         <x:v>2222</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>1000090000</x:v>
+        <x:v>1000033000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
